--- a/biology/Zoologie/Alveopora_catalai/Alveopora_catalai.xlsx
+++ b/biology/Zoologie/Alveopora_catalai/Alveopora_catalai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alveopora catalai est une espèce de coraux de la famille des Poritidae selon ITISITIS      (10 mars 2019)[2]. Pour le WoRMS ce taxon est de position incertaine au sein de l'arbre phylogénique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alveopora catalai est une espèce de coraux de la famille des Poritidae selon ITISITIS      (10 mars 2019). Pour le WoRMS ce taxon est de position incertaine au sein de l'arbre phylogénique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, catalai, lui a été donné en l'honneur de René Catala, biologiste qui a fondé en 1956 de l'Aquarium de Nouméa[3], et que l'auteur remercie pour les spécimens procurés et pour les photographies de colonies sur site.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, catalai, lui a été donné en l'honneur de René Catala, biologiste qui a fondé en 1956 de l'Aquarium de Nouméa, et que l'auteur remercie pour les spécimens procurés et pour les photographies de colonies sur site.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
